--- a/TestExcelOutput/excelTemplate/PDFTemp/検収記録.xlsx
+++ b/TestExcelOutput/excelTemplate/PDFTemp/検収記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\4_TestExcelOut\TestExcelOutput\excelTemplate\PDFTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D38B7073-6851-4002-BC19-8E37EE034443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8566E4B4-1299-4DCB-83CB-EFA9C5726988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="1120" windowWidth="14450" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="検収記録_例.店舗全体" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">検収記録_例.店舗全体!$A$1:$K$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">検収記録_例.店舗全体!$A$1:$K$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,14 +31,14 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>承認者</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>20XX年　　4月　XX日</t>
     <rPh sb="12" eb="13">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>検収記録（日報）</t>
@@ -51,14 +51,14 @@
     <rPh sb="5" eb="7">
       <t>ニッポウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>品名</t>
     <rPh sb="0" eb="2">
       <t>ヒンメイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>受入時間</t>
@@ -71,7 +71,7 @@
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>外箱に異常はないか                                                      （包装の破れや液漏れ等）</t>
@@ -93,7 +93,7 @@
     <rPh sb="73" eb="74">
       <t>トウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>品物名や数量等、注文通りに納品されているか</t>
@@ -118,7 +118,7 @@
     <rPh sb="13" eb="15">
       <t>ノウヒン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>保管温度が守られていたか</t>
@@ -131,7 +131,7 @@
     <rPh sb="5" eb="6">
       <t>マモ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>農産物と水産物の場合　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　：産地と品種/魚類</t>
@@ -153,21 +153,21 @@
     <rPh sb="54" eb="56">
       <t>ギョルイ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>記録者</t>
     <rPh sb="0" eb="3">
       <t>キロクシャ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>数量</t>
@@ -187,12 +187,20 @@
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,73 +300,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -646,10 +636,10 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -684,17 +674,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="21"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12">
@@ -708,7 +698,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="21"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1">
@@ -722,7 +712,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="21"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:12" ht="50.15" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -731,19 +721,19 @@
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -775,192 +765,67 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="14"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="15"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="15"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="15"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="15"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="15"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="15"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" s="19" customFormat="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="K2:K4"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestExcelOutput/excelTemplate/PDFTemp/検収記録.xlsx
+++ b/TestExcelOutput/excelTemplate/PDFTemp/検収記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\4_TestExcelOut\TestExcelOutput\excelTemplate\PDFTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8566E4B4-1299-4DCB-83CB-EFA9C5726988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFA0AC2-52FA-4DE0-A69B-AAEF01306EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="1120" windowWidth="14450" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/TestExcelOutput/excelTemplate/PDFTemp/検収記録.xlsx
+++ b/TestExcelOutput/excelTemplate/PDFTemp/検収記録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\4_TestExcelOut\TestExcelOutput\excelTemplate\PDFTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFA0AC2-52FA-4DE0-A69B-AAEF01306EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F1AD3C-888A-4B94-B9A5-2A974EE5783F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="1120" windowWidth="14450" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="検収記録_例.店舗全体" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">検収記録_例.店舗全体!$A$1:$K$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">検収記録_例.店舗全体!$A$1:$K$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>承認者</t>
     <phoneticPr fontId="5"/>
@@ -177,6 +177,189 @@
   </si>
   <si>
     <t>単価</t>
+  </si>
+  <si>
+    <t>品名_1</t>
+  </si>
+  <si>
+    <t>2:32:50 午後</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_1</t>
+  </si>
+  <si>
+    <t>品名_2</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_2</t>
+  </si>
+  <si>
+    <t>品名_3</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_3</t>
+  </si>
+  <si>
+    <t>品名_4</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_4</t>
+  </si>
+  <si>
+    <t>品名_5</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_5</t>
+  </si>
+  <si>
+    <t>品名_6</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_6</t>
+  </si>
+  <si>
+    <t>品名_7</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_7</t>
+  </si>
+  <si>
+    <t>品名_8</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_8</t>
+  </si>
+  <si>
+    <t>品名_9</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_9</t>
+  </si>
+  <si>
+    <t>品名_10</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_10</t>
+  </si>
+  <si>
+    <t>品名_11</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_11</t>
+  </si>
+  <si>
+    <t>品名_12</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_12</t>
+  </si>
+  <si>
+    <t>品名_13</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_13</t>
+  </si>
+  <si>
+    <t>品名_14</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_14</t>
+  </si>
+  <si>
+    <t>品名_15</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_15</t>
+  </si>
+  <si>
+    <t>品名_16</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_16</t>
+  </si>
+  <si>
+    <t>品名_17</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_17</t>
+  </si>
+  <si>
+    <t>品名_18</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_18</t>
+  </si>
+  <si>
+    <t>品名_19</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_19</t>
+  </si>
+  <si>
+    <t>品名_20</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_20</t>
+  </si>
+  <si>
+    <t>品名_21</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_21</t>
+  </si>
+  <si>
+    <t>品名_22</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_22</t>
+  </si>
+  <si>
+    <t>品名_23</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_23</t>
+  </si>
+  <si>
+    <t>品名_24</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_24</t>
+  </si>
+  <si>
+    <t>品名_25</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_25</t>
+  </si>
+  <si>
+    <t>品名_26</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_26</t>
+  </si>
+  <si>
+    <t>品名_27</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_27</t>
+  </si>
+  <si>
+    <t>品名_28</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_28</t>
+  </si>
+  <si>
+    <t>品名_29</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_29</t>
+  </si>
+  <si>
+    <t>品名_30</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_30</t>
   </si>
 </sst>
 </file>
@@ -636,10 +819,10 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -750,10 +933,16 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+    <row r="6" spans="1:12" ht="36">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -764,10 +953,16 @@
       <c r="K6" s="9"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+    <row r="7" spans="1:12" ht="36">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -778,10 +973,16 @@
       <c r="K7" s="9"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+    <row r="8" spans="1:12" ht="36">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -792,10 +993,16 @@
       <c r="K8" s="9"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+    <row r="9" spans="1:12" ht="36">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -806,19 +1013,553 @@
       <c r="K9" s="9"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+    <row r="10" spans="1:12" ht="36">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="36">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="36">
+      <c r="A12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="36">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="36">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="36">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="36">
+      <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="36">
+      <c r="A17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="36">
+      <c r="A18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="36">
+      <c r="A19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="36">
+      <c r="A20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="36">
+      <c r="A21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="36">
+      <c r="A22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="36">
+      <c r="A23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="36">
+      <c r="A24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="36">
+      <c r="A25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="36">
+      <c r="A26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="36">
+      <c r="A27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="36">
+      <c r="A28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="36">
+      <c r="A29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="36">
+      <c r="A30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="36">
+      <c r="A31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="36">
+      <c r="A32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="36">
+      <c r="A33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" ht="36">
+      <c r="A34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="36">
+      <c r="A35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/TestExcelOutput/excelTemplate/PDFTemp/検収記録.xlsx
+++ b/TestExcelOutput/excelTemplate/PDFTemp/検収記録.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\4_TestExcelOut\TestExcelOutput\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_Project\4_TestExcelOut\TestExcelOutput\excelTemplate\PDFTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8381421E-B5C4-46FC-B167-9F370F1E6702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F8013A3-F4BD-485C-ABD6-31B112C080E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2450" yWindow="910" windowWidth="14450" windowHeight="9080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="検収記録_例.店舗全体" sheetId="2" r:id="rId1"/>
+    <sheet name="検収記録" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">検収記録_例.店舗全体!$A$1:$H$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">検収記録!$A$1:$K$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,37 +28,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>承認者</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>20XX年　　4月　XX日</t>
-    <rPh sb="12" eb="13">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>検収記録（日報）</t>
-    <rPh sb="0" eb="2">
-      <t>ケンシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニッポウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>品名</t>
     <rPh sb="0" eb="2">
       <t>ヒンメイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>受入時間</t>
@@ -71,7 +55,7 @@
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>外箱に異常はないか                                                      （包装の破れや液漏れ等）</t>
@@ -93,7 +77,7 @@
     <rPh sb="73" eb="74">
       <t>トウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>品物名や数量等、注文通りに納品されているか</t>
@@ -118,7 +102,7 @@
     <rPh sb="13" eb="15">
       <t>ノウヒン</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>保管温度が守られていたか</t>
@@ -131,7 +115,7 @@
     <rPh sb="5" eb="6">
       <t>マモ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>農産物と水産物の場合　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　：産地と品種/魚類</t>
@@ -153,21 +137,220 @@
     <rPh sb="54" eb="56">
       <t>ギョルイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>記録者</t>
     <rPh sb="0" eb="3">
       <t>キロクシャ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20XX年XX月XX日</t>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>重量</t>
+  </si>
+  <si>
+    <t>単価</t>
+  </si>
+  <si>
+    <t>品名_1</t>
+  </si>
+  <si>
+    <t>10:07:19 午前</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_1</t>
+  </si>
+  <si>
+    <t>品名_2</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_2</t>
+  </si>
+  <si>
+    <t>品名_3</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_3</t>
+  </si>
+  <si>
+    <t>品名_4</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_4</t>
+  </si>
+  <si>
+    <t>品名_5</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_5</t>
+  </si>
+  <si>
+    <t>品名_6</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_6</t>
+  </si>
+  <si>
+    <t>品名_7</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_7</t>
+  </si>
+  <si>
+    <t>品名_8</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_8</t>
+  </si>
+  <si>
+    <t>品名_9</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_9</t>
+  </si>
+  <si>
+    <t>品名_10</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_10</t>
+  </si>
+  <si>
+    <t>品名_11</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_11</t>
+  </si>
+  <si>
+    <t>品名_12</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_12</t>
+  </si>
+  <si>
+    <t>品名_13</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_13</t>
+  </si>
+  <si>
+    <t>品名_14</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_14</t>
+  </si>
+  <si>
+    <t>品名_15</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_15</t>
+  </si>
+  <si>
+    <t>品名_16</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_16</t>
+  </si>
+  <si>
+    <t>品名_17</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_17</t>
+  </si>
+  <si>
+    <t>品名_18</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_18</t>
+  </si>
+  <si>
+    <t>品名_19</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_19</t>
+  </si>
+  <si>
+    <t>品名_20</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_20</t>
+  </si>
+  <si>
+    <t>品名_21</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_21</t>
+  </si>
+  <si>
+    <t>品名_22</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_22</t>
+  </si>
+  <si>
+    <t>品名_23</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_23</t>
+  </si>
+  <si>
+    <t>品名_24</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_24</t>
+  </si>
+  <si>
+    <t>品名_25</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_25</t>
+  </si>
+  <si>
+    <t>品名_26</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_26</t>
+  </si>
+  <si>
+    <t>品名_27</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_27</t>
+  </si>
+  <si>
+    <t>品名_28</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_28</t>
+  </si>
+  <si>
+    <t>品名_29</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_29</t>
+  </si>
+  <si>
+    <t>品名_30</t>
+  </si>
+  <si>
+    <t>外箱に異常はない_30</t>
   </si>
 </sst>
 </file>
@@ -184,14 +367,6 @@
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,26 +400,27 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
-      <color theme="0"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -255,12 +431,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,61 +461,61 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{391E853C-5614-4D68-AFEE-66E884F286E7}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{FE1C305D-9AD4-4A5B-A19A-27D63C35332F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,133 +792,759 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2E2D08-D105-4F30-9D48-CF42F8A9EB1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1948F93F-35DE-4C83-8F4C-80A9032D2269}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="18.9140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="4"/>
-    <col min="3" max="6" width="21.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.4140625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="4"/>
+    <col min="3" max="9" width="21.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="24.4140625" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="22.5">
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="22.5">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1">
-      <c r="A4" s="5"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" s="8" customFormat="1">
+      <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="50.15" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="50.15" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="36">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="36">
+      <c r="A7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="36">
+      <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="36">
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="36">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="36">
+      <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="36">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="36">
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="36">
+      <c r="A14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="36">
+      <c r="A15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="36">
+      <c r="A16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="36">
+      <c r="A17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="36">
+      <c r="A18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="36">
+      <c r="A19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="36">
+      <c r="A20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="36">
+      <c r="A21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="36">
+      <c r="A22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="36">
+      <c r="A23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="36">
+      <c r="A24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="36">
+      <c r="A25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="36">
+      <c r="A26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="36">
+      <c r="A27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="36">
+      <c r="A28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="36">
+      <c r="A29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" ht="36">
+      <c r="A30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="36">
+      <c r="A31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="36">
+      <c r="A32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="36">
+      <c r="A33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" ht="36">
+      <c r="A34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="36">
+      <c r="A35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="H2:H4"/>
+  <mergeCells count="1">
+    <mergeCell ref="K2:K4"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>